--- a/Controller/ControllerData.xlsx
+++ b/Controller/ControllerData.xlsx
@@ -49,9 +49,6 @@
     <t>Demo</t>
   </si>
   <si>
-    <t>com.well.SeleniumFramework.UserdefineTests.UserDefinedTest</t>
-  </si>
-  <si>
     <t>TC002</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>SeleniumOne.SeleniumOne.UserDefinedTest</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +455,7 @@
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="5" max="5" width="57.85546875" customWidth="1"/>
+    <col min="5" max="5" width="62" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -501,22 +501,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
